--- a/public/formats/Formato_Municipios.xlsx
+++ b/public/formats/Formato_Municipios.xlsx
@@ -124,20 +124,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -474,25 +471,25 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
